--- a/EMI_Calculator.xlsx
+++ b/EMI_Calculator.xlsx
@@ -468,7 +468,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
